--- a/Excel/表7试油试采数据.xlsx
+++ b/Excel/表7试油试采数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72660D9-00E4-4EF8-868F-B677B7B3ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902687C-07EC-4374-ACF9-30D962E48BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表7-1试采注数据" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>井号</t>
   </si>
@@ -166,9 +166,6 @@
     </r>
   </si>
   <si>
-    <t>累积注水(m3)</t>
-  </si>
-  <si>
     <t>D80</t>
   </si>
   <si>
@@ -206,11 +203,11 @@
   </si>
   <si>
     <t>试采数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>试油数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,7 +222,7 @@
       </rPr>
       <t xml:space="preserve"> (t)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,7 +256,7 @@
       </rPr>
       <t>/d)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -274,7 +271,7 @@
       </rPr>
       <t>(t/d)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -308,7 +305,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -323,7 +320,7 @@
       </rPr>
       <t>Mpa)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -376,22 +373,50 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>课件P111</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弹性产率在2.5到8之间，天然能量不充足，采油速度应设置为1%到1.5%之间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积注水(m3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>产油能力(t/d /m /Mpa)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸水能力(m^3/d /m /Mpa)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>油水井数比</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>童式法</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大庆油田</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +445,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -441,12 +474,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,8 +505,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -528,96 +585,90 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -626,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,80 +693,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -723,8 +702,68 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2353,351 +2392,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12.88671875"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="L3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="19">
+        <v>4</v>
+      </c>
+      <c r="I4" s="20">
+        <v>12.5</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="13">
+        <v>90</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <f>I4/H4/C4</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="O4">
+        <f>2/(N6/J19+1)</f>
+        <v>1.0530177949000181</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4</v>
+      </c>
+      <c r="I5" s="20">
+        <v>20.8</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="13">
+        <v>500</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <f>I5/H5/C5</f>
+        <v>1.1555555555555557</v>
+      </c>
+      <c r="O5">
+        <f>SQRT(J19/N6)</f>
+        <v>1.0545008790113559</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE(N4:N5)</f>
+        <v>1.0242063492063493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="15">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="H17" s="18">
+        <v>18.5</v>
+      </c>
+      <c r="I17" s="13">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <f>H17/G17/C17</f>
+        <v>1.0277777777777777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
+      <c r="G18" s="15">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
-        <v>12.5</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="7">
-        <v>90</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>20.8</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="7">
-        <v>500</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7">
-        <v>4</v>
-      </c>
-      <c r="H21" s="7">
-        <v>18.5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="7">
-        <v>4</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="H18" s="18">
         <v>22.5</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I18" s="13">
         <v>800</v>
       </c>
+      <c r="J18">
+        <f>H18/G18/C18</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(J17:J18)</f>
+        <v>1.1388888888888888</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A15:I15"/>
+  <mergeCells count="20">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="E16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -2705,7 +2754,7 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2715,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2726,13 +2775,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,13 +2972,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="8">
         <v>44440</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="9">
         <v>1.0169999999999999</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="9">
         <v>0.433</v>
       </c>
     </row>
@@ -2967,13 +3016,13 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+      <c r="A23" s="6">
         <v>44562</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="7">
         <v>4.2140000000000004</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="7">
         <v>1.046</v>
       </c>
     </row>
@@ -2989,11 +3038,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,7 +3052,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>

--- a/Excel/表7试油试采数据.xlsx
+++ b/Excel/表7试油试采数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7902687C-07EC-4374-ACF9-30D962E48BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C6F4D-6E39-4112-97D9-BA0476C2CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表7-1试采注数据" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +520,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +781,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2394,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2420,6 +2462,9 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -2459,6 +2504,7 @@
       <c r="O2" s="28" t="s">
         <v>41</v>
       </c>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
@@ -2490,6 +2536,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2527,15 +2574,15 @@
       <c r="M4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="31">
         <f>I4/H4/C4</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="30">
         <f>2/(N6/J19+1)</f>
         <v>1.0530177949000181</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="33" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2575,26 +2622,42 @@
       <c r="M5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="31">
         <f>I5/H5/C5</f>
         <v>1.1555555555555557</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="30">
         <f>SQRT(J19/N6)</f>
         <v>1.0545008790113559</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M6" s="10" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="36">
+        <v>14.39</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="32">
         <f>AVERAGE(N4:N5)</f>
         <v>1.0242063492063493</v>
       </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I10" s="5"/>
@@ -2686,7 +2749,7 @@
       <c r="I17" s="13">
         <v>500</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="35">
         <f>H17/G17/C17</f>
         <v>1.0277777777777777</v>
       </c>
@@ -2717,7 +2780,7 @@
       <c r="I18" s="13">
         <v>800</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="35">
         <f>H18/G18/C18</f>
         <v>1.25</v>
       </c>
@@ -2726,7 +2789,7 @@
       <c r="I19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="34">
         <f>AVERAGE(J17:J18)</f>
         <v>1.1388888888888888</v>
       </c>

--- a/Excel/表7试油试采数据.xlsx
+++ b/Excel/表7试油试采数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53C6F4D-6E39-4112-97D9-BA0476C2CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92428DC0-7CAF-4FAB-8E3A-BC4C19F3221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>井号</t>
   </si>
@@ -409,6 +409,10 @@
   </si>
   <si>
     <t>大庆油田</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>q_o</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -729,83 +733,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,14 +1425,7 @@
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" defTabSz="914400" rtl="0">
-                  <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
+                  <a:defRPr lang="zh-CN" altLang="en-US"/>
                 </a:pPr>
                 <a:endParaRPr lang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
@@ -2437,7 +2434,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2447,197 +2444,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>41</v>
       </c>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="15">
         <v>3.5</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="15">
         <v>4</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="16">
         <v>12.5</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>90</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="21">
         <f>I4/H4/C4</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="20">
         <f>2/(N6/J19+1)</f>
         <v>1.0530177949000181</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="15">
         <v>4.5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="15">
         <v>4</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <v>20.8</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>500</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="21">
         <f>I5/H5/C5</f>
         <v>1.1555555555555557</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="20">
         <f>SQRT(J19/N6)</f>
         <v>1.0545008790113559</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="36">
+      <c r="C6" s="26">
         <v>14.39</v>
       </c>
       <c r="D6" s="5"/>
@@ -2649,138 +2646,147 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="22">
         <f>AVERAGE(N4:N5)</f>
         <v>1.0242063492063493</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7">
+        <f>C6*N6</f>
+        <v>14.738329365079368</v>
+      </c>
+    </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I10" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="22" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="28" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>4.5</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>4</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="14">
         <v>18.5</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="11">
         <v>500</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="25">
         <f>H17/G17/C17</f>
         <v>1.0277777777777777</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>4.5</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>4</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <v>22.5</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>800</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="25">
         <f>H18/G18/C18</f>
         <v>1.25</v>
       </c>
@@ -2789,20 +2795,13 @@
       <c r="I19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="24">
         <f>AVERAGE(J17:J18)</f>
         <v>1.1388888888888888</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -2816,6 +2815,13 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/表7试油试采数据.xlsx
+++ b/Excel/表7试油试采数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92428DC0-7CAF-4FAB-8E3A-BC4C19F3221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5395AD-FE9A-4AD5-A4F4-3EA5B81E95CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3024" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表7-1试采注数据" sheetId="1" r:id="rId1"/>
@@ -781,35 +781,35 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2434,7 +2434,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2444,71 +2444,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="34" t="s">
         <v>41</v>
       </c>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2530,9 +2530,9 @@
       <c r="L3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2657,7 +2657,11 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="10" t="s">
+      <c r="I7">
+        <f>I4*1000/850</f>
+        <v>14.705882352941176</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>44</v>
       </c>
       <c r="N7">
@@ -2669,49 +2673,49 @@
       <c r="I10" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="28" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="27" t="s">
+      <c r="I15" s="33"/>
+      <c r="J15" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="18" t="s">
         <v>8</v>
       </c>
@@ -2727,7 +2731,7 @@
       <c r="I16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="27"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -2802,6 +2806,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -2815,13 +2826,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A14:I14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
